--- a/gpaxact.xlsx
+++ b/gpaxact.xlsx
@@ -23,8 +23,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>rodri</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The direction of the relationship is positive, i.e. when ACT grows (one point), GPA is expected to grow by about 0.10 score points.  
+The intercept shows the GPA value when the other coefficients are equal to zero. That is, if any student in the class gets a score of 0 we expect GPA = 0.568.
+If the ACT score is increased by 5 points the GPA will be about 0.51 (=0.102*5)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the sum is widely near to zero...As the sum of the residuals is very close to zero, it seems that the simple linear regression model for predicting GPA in function of ACT predicts with almost no error. However, with the residues very close to zero, we can deduce that the adjustment of the model may be overestimated.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Student</t>
   </si>
@@ -39,7 +99,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +111,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,9 +166,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -88,6 +195,1309 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16560673665791775"/>
+                  <c:y val="7.3657407407407408E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.568</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>+0.102x </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.5774</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463538024"/>
+        <c:axId val="463536064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463538024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463536064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463536064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463538024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="298864" cy="181460"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1952625" y="15875"/>
+              <a:ext cx="298864" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐺𝑃𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1952625" y="15875"/>
+              <a:ext cx="298864" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐺𝑃𝐴) ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1580561" cy="181460"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="CaixaDeTexto 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2466975" y="3175"/>
+              <a:ext cx="1580561" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑖𝑑𝑢𝑎𝑙𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> − </m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐺𝑃𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="CaixaDeTexto 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2466975" y="3175"/>
+              <a:ext cx="1580561" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑠𝑖𝑑𝑢𝑎𝑙𝑠=𝐺𝑃𝐴 − (𝐺𝑃𝐴) ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557388</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>170039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Gráfico 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,16 +1762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,8 +1784,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="O1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -382,8 +1801,30 @@
       <c r="C2" s="1">
         <v>21</v>
       </c>
+      <c r="D2" s="6">
+        <f>INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C2</f>
+        <v>2.714285714285714</v>
+      </c>
+      <c r="E2" s="6">
+        <f>B2-D2</f>
+        <v>8.5714285714285854E-2</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>"Estimated relationship = fitted(GPA)="&amp;TEXT(INTERCEPT(B2:B9,C2:C9),"0.000") &amp;"+"&amp;TEXT(SLOPE(B2:B9,C2:C9),"0.000")&amp;"ACT"</f>
+        <v>Estimated relationship = fitted(GPA)=0.568+0.102ACT</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="O2" s="5">
+        <v>21</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -393,8 +1834,22 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
+      <c r="D3" s="6">
+        <f>INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C3</f>
+        <v>3.0208791208791208</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E9" si="0">B3-D3</f>
+        <v>0.37912087912087911</v>
+      </c>
+      <c r="O3" s="5">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -404,8 +1859,22 @@
       <c r="C4" s="1">
         <v>26</v>
       </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D3:D9" si="1">INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C4</f>
+        <v>3.2252747252747254</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.22527472527472536</v>
+      </c>
+      <c r="O4" s="5">
+        <v>26</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -415,8 +1884,22 @@
       <c r="C5" s="1">
         <v>27</v>
       </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3274725274725276</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17252747252747236</v>
+      </c>
+      <c r="O5" s="5">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -426,8 +1909,22 @@
       <c r="C6" s="1">
         <v>29</v>
       </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5318681318681318</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8131868131868334E-2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -437,8 +1934,22 @@
       <c r="C7" s="1">
         <v>25</v>
       </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1230769230769231</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.12307692307692308</v>
+      </c>
+      <c r="O7" s="5">
+        <v>25</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -448,8 +1959,22 @@
       <c r="C8" s="1">
         <v>25</v>
       </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1230769230769231</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.42307692307692291</v>
+      </c>
+      <c r="O8" s="5">
+        <v>25</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -458,9 +1983,31 @@
       </c>
       <c r="C9" s="1">
         <v>30</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.634065934065934</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.5934065934066144E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E10" s="2">
+        <f>SUM(E2:E9)</f>
+        <v>4.4408920985006262E-16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gpaxact.xlsx
+++ b/gpaxact.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,31 +51,7 @@
           <t xml:space="preserve">
 The direction of the relationship is positive, i.e. when ACT grows (one point), GPA is expected to grow by about 0.10 score points.  
 The intercept shows the GPA value when the other coefficients are equal to zero. That is, if any student in the class gets a score of 0 we expect GPA = 0.568.
-If the ACT score is increased by 5 points the GPA will be about 0.51 (=0.102*5)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>rodri:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-the sum is widely near to zero...As the sum of the residuals is very close to zero, it seems that the simple linear regression model for predicting GPA in function of ACT predicts with almost no error. However, with the residues very close to zero, we can deduce that the adjustment of the model may be overestimated.</t>
+If the ACT score is increased by 5 points the GPA will be about 0.51 (=0.102*5) greater.</t>
         </r>
       </text>
     </comment>
@@ -100,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000000000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +90,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,18 +108,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,18 +128,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -253,7 +214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$P$1</c:f>
+              <c:f>Plan1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -300,8 +261,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16560673665791775"/>
-                  <c:y val="7.3657407407407408E-2"/>
+                  <c:x val="0.16024843210388176"/>
+                  <c:y val="0.1064945773287773"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -323,20 +284,22 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" i="1" baseline="0"/>
                       <a:t>y = 0.568</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:rPr lang="en-US" sz="900" b="0" i="1" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>+0.102x </a:t>
+                      <a:t>+0.102ACT</a:t>
                     </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>R² = 0.5774</a:t>
@@ -377,7 +340,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Plan1!$O$2:$O$9</c:f>
+              <c:f>Plan1!$K$4:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -410,7 +373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Plan1!$P$2:$P$9</c:f>
+              <c:f>Plan1!$L$4:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -451,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463538024"/>
-        <c:axId val="463536064"/>
+        <c:axId val="437143336"/>
+        <c:axId val="437147256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463538024"/>
+        <c:axId val="437143336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -466,11 +429,11 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -513,15 +476,15 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463536064"/>
+        <c:crossAx val="437147256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463536064"/>
+        <c:axId val="437147256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2.4"/>
+          <c:min val="2.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -529,11 +492,11 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -576,7 +539,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463538024"/>
+        <c:crossAx val="437143336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1185,22 +1148,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298864" cy="181460"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1952625" y="15875"/>
+              <a:off x="1946275" y="19050"/>
               <a:ext cx="298864" cy="181460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1263,12 +1226,12 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1952625" y="15875"/>
+              <a:off x="1946275" y="19050"/>
               <a:ext cx="298864" cy="181460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1318,22 +1281,22 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1580561" cy="181460"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CaixaDeTexto 31"/>
+            <xdr:cNvPr id="16" name="CaixaDeTexto 15"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2466975" y="3175"/>
+              <a:off x="2460625" y="0"/>
               <a:ext cx="1580561" cy="181460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1420,12 +1383,12 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CaixaDeTexto 31"/>
+            <xdr:cNvPr id="16" name="CaixaDeTexto 15"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2466975" y="3175"/>
+              <a:off x="2460625" y="0"/>
               <a:ext cx="1580561" cy="181460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1467,22 +1430,180 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="843180" cy="493790"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4479925" y="82550"/>
+              <a:ext cx="843180" cy="493790"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>8</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑠𝑖𝑑𝑢𝑎𝑙𝑠</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4479925" y="82550"/>
+              <a:ext cx="843180" cy="493790"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=1)^8▒𝑟𝑒𝑠𝑖𝑑𝑢𝑎𝑙𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>557388</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>170039</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>275166</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161572</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="34" name="Gráfico 33"/>
+        <xdr:cNvPr id="19" name="Gráfico 18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1763,246 +1884,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="B3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="I3" t="str">
+        <f>"Estimated relationship = GPA(fitted) = "&amp;TEXT(INTERCEPT(C4:C11,D4:D11),"0.000")&amp;"+"&amp;TEXT(SLOPE(C4:C11,D4:D11),"0.000")&amp;"ACT"</f>
+        <v>Estimated relationship = GPA(fitted) = 0.568+0.102ACT</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C4" s="1">
         <v>2.8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="1">
         <v>21</v>
       </c>
-      <c r="D2" s="6">
-        <f>INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C2</f>
+      <c r="E4" s="3">
+        <f>INTERCEPT($C$4:$C$11,$D$4:$D$11)+SLOPE($C$4:$C$11,$D$4:$D$11)*D4</f>
         <v>2.714285714285714</v>
       </c>
-      <c r="E2" s="6">
-        <f>B2-D2</f>
+      <c r="F4" s="4">
+        <f>C4-E4</f>
         <v>8.5714285714285854E-2</v>
       </c>
-      <c r="G2" s="4" t="str">
-        <f>"Estimated relationship = fitted(GPA)="&amp;TEXT(INTERCEPT(B2:B9,C2:C9),"0.000") &amp;"+"&amp;TEXT(SLOPE(B2:B9,C2:C9),"0.000")&amp;"ACT"</f>
-        <v>Estimated relationship = fitted(GPA)=0.568+0.102ACT</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="O2" s="5">
+      <c r="G4" s="2">
+        <f>SUM(F4:F11)</f>
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="K4" s="5">
         <v>21</v>
       </c>
-      <c r="P2" s="5">
+      <c r="L4" s="5">
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C5" s="1">
         <v>3.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D5" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
-        <f>INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C3</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E11" si="0">INTERCEPT($C$4:$C$11,$D$4:$D$11)+SLOPE($C$4:$C$11,$D$4:$D$11)*D5</f>
         <v>3.0208791208791208</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E9" si="0">B3-D3</f>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F11" si="1">C5-E5</f>
         <v>0.37912087912087911</v>
       </c>
-      <c r="O3" s="5">
+      <c r="K5" s="5">
         <v>24</v>
       </c>
-      <c r="P3" s="5">
+      <c r="L5" s="5">
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D6" s="1">
         <v>26</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D3:D9" si="1">INTERCEPT($B$2:$B$9,$C$2:$C$9)+SLOPE($B$2:$B$9,$C$2:$C$9)*C4</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>3.2252747252747254</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.22527472527472536</v>
+      </c>
+      <c r="K6" s="5">
+        <v>26</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.22527472527472536</v>
-      </c>
-      <c r="O4" s="5">
-        <v>26</v>
-      </c>
-      <c r="P4" s="5">
+        <v>3.3274725274725276</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17252747252747236</v>
+      </c>
+      <c r="K7" s="5">
+        <v>27</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5318681318681318</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8131868131868334E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1230769230769231</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.12307692307692308</v>
+      </c>
+      <c r="K9" s="5">
+        <v>25</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1230769230769231</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>3.3274725274725276</v>
-      </c>
-      <c r="E5" s="6">
+        <v>-0.42307692307692291</v>
+      </c>
+      <c r="K10" s="5">
+        <v>25</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>0.17252747252747236</v>
-      </c>
-      <c r="O5" s="5">
-        <v>27</v>
-      </c>
-      <c r="P5" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6">
+        <v>3.634065934065934</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>3.5318681318681318</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>6.8131868131868334E-2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>29</v>
-      </c>
-      <c r="P6" s="5">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="1"/>
-        <v>3.1230769230769231</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.12307692307692308</v>
-      </c>
-      <c r="O7" s="5">
-        <v>25</v>
-      </c>
-      <c r="P7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="1"/>
-        <v>3.1230769230769231</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.42307692307692291</v>
-      </c>
-      <c r="O8" s="5">
-        <v>25</v>
-      </c>
-      <c r="P8" s="5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+        <v>6.5934065934066144E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>30</v>
+      </c>
+      <c r="L11" s="5">
         <v>3.7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="1"/>
-        <v>3.634065934065934</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>6.5934065934066144E-2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>30</v>
-      </c>
-      <c r="P9" s="5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>4.4408920985006262E-16</v>
       </c>
     </row>
   </sheetData>

--- a/gpaxact.xlsx
+++ b/gpaxact.xlsx
@@ -29,7 +29,7 @@
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1884,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L11"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1898,6 +1898,12 @@
     <col min="9" max="9" width="42.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I2" t="str">
+        <f>"Estimated relationship = GPA(fitted) = "&amp;TEXT(INTERCEPT(C4:C11,D4:D11),"0.000")&amp;"+"&amp;TEXT(SLOPE(C4:C11,D4:D11),"0.000")&amp;"ACT"</f>
+        <v>Estimated relationship = GPA(fitted) = 0.568+0.102ACT</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1909,8 +1915,8 @@
         <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f>"Estimated relationship = GPA(fitted) = "&amp;TEXT(INTERCEPT(C4:C11,D4:D11),"0.000")&amp;"+"&amp;TEXT(SLOPE(C4:C11,D4:D11),"0.000")&amp;"ACT"</f>
-        <v>Estimated relationship = GPA(fitted) = 0.568+0.102ACT</v>
+        <f>"When ACT=20 the GPA will be = "&amp;TEXT(INTERCEPT(C4:C11,D4:D11)+SLOPE(C4:C11,D4:D11)*20,"0.000")</f>
+        <v>When ACT=20 the GPA will be = 2.612</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>2</v>
